--- a/data/hotels_by_city/Dallas/Dallas_shard_474.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_474.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="711">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Fortworthfrog</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>The front desk was cheerful and helpfulThe room was clean and stocked The best part was there is a huge field right next to it for the dogs walks!How great is that!!!!Ok this is a new place and it is niceClose to a liquor store also just FYIMore</t>
   </si>
   <si>
+    <t>jamesZ7062MI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r553036121-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>We decided to rest on out business travels to OKC . Front desk was tentative and quick to get us in our room . King Room was a bit small but clean . We would have enjoyed a bigger tv as well. I would recommend this la quinta as a good value for a small town. More</t>
   </si>
   <si>
+    <t>Amanda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r583648876-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Took a trip with my wife and kiddos the hotel is indeed a bit dated but they keep it very clean and the staff treated us great. We would stay again in the future if the need arises. Great value for the money too. More</t>
   </si>
   <si>
+    <t>Rafa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r578650160-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>First time in this town!i really like the place it’s very cozy ,quiet,clean and staff is very professional and knowledgeable on recommend places near by the hotel!!I will definitely comeback with Family!More</t>
   </si>
   <si>
+    <t>786robina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r578700777-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>Was greeted by desk staff instantly! Checked in swiftly, very friendly folks. Room was very clean, not surprised. Ground floor 2nd room on the left. Quiet even though I could see the highway. No problems, no complaints.</t>
   </si>
   <si>
+    <t>Josh B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r569332282-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>Hotel is easy to get to. About 1/4 off I35. Hotel and room was clean. Staff was very courteous.  Areas to walk your dog. Pool area looked nice but was not open yet. Several fast food joints within 1/2 mile. Some restaurants close too. Grocery store and auto parts across the street. Check out nickys Italian about 1 mile south. It was excellent. More</t>
   </si>
   <si>
+    <t>Kimmysue H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r569017133-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>This little town doesn't have much to offer by way of tourism, but they have a great La Quinta to stay in.  We have stayed here several times because we do business with Motor Home Specialist RV frequently.  This is one of the better La Quintas we have ever stayed in, and we are loyal to the chain.More</t>
   </si>
   <si>
+    <t>connief255</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r567958394-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Angela S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r564797289-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>The high school softball team stayed at the hotel for a tournament. The hotel staff was nice and had the hotel rooms ready when we checked in according to the list as I had emailed earlier in the week. The breakfast food was good. The laundry room was clean and the machines were efficient.More</t>
   </si>
   <si>
+    <t>neillo2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r556024964-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -387,6 +417,9 @@
     <t>The room was very clean and the staff was very helpful. We came for a sporting event and the hotel was located next to fast food, the grocery store, and gas stations. I will definitely be staying her e</t>
   </si>
   <si>
+    <t>568abrahamg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r554930732-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -411,6 +444,9 @@
     <t>The staff at this hotel was great.  Very friendly and helpful. Breakfast was GREAT!!!!The room was very clean and you could tell that they are very prideful in the business.  Check in made me feel good from the start. More</t>
   </si>
   <si>
+    <t>I9043QRjackb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r554897605-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -438,6 +474,9 @@
     <t>Unfortunately would not take the 15k points for a free room; wanted 30k points! Then all rooms are outside access like apartments. The facility appears very out dated and old. Bathroom was dirty with scum and lime on the shower walls. Very disappointed upon arrival when front desk person took 10 minutes to come out from behind the counter like they had been taking a nap or something.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r550670400-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -456,6 +495,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>KarenLN63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r549716312-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -480,6 +522,9 @@
     <t>Very comfortable beds, clean room, spacious clean bathroom.  Microwave and fridge, 32 inch flat screen tv.  Desk, chair next to big window with nice view.  The breakfast included cheese omelets, biscuits, gravy, sausage, coffee, milk, juice and more.  Very friendly staff.  My family stayed here for a family Christmas get together in Grandview.  Plenty of eateries within walking distance and stores to shop.More</t>
   </si>
   <si>
+    <t>TexasMrsTex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r549104928-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -504,6 +549,9 @@
     <t>La Quinta does not mean quite here.  I’m writing this review on maybe two hours of sleep! We stayed over night here on Christmas Eve. My dad made and prepaid for the room since we would be arriving late in the evening.  When we checked in she told us the heat wasn’t working but they had space heaters.  At this point we really didn’t have any choice, so we said we would manage. We got to the room to find the TV didn’t work.  We heard cabinets slamming and doors slamming the entire night.  I thought they were remodeling the room above us. Now that I’m sitting here writing this, I think the noises are coming from the lobby/kitchen area.  Again, all night!!!  So I now get to spend Christmas with my family on little to no sleep. I’m furious! Why would they even put anyone in this room? If you have to stay here, do not stay in suite 200! More</t>
   </si>
   <si>
+    <t>B07599</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r537524305-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -522,6 +570,9 @@
     <t>Responded November 1, 2017</t>
   </si>
   <si>
+    <t>Alex F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r535095095-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -537,6 +588,9 @@
     <t>We came to visit friends in the area. We got the room with the jet tub. It's an excellent value for what we got. Mary was super friendly and helpful,  going as far as making sure our reservation wouldn't be cancelled since we got in so late. I was impressed with the cleanliness and clean smell walking down the hallway to our room. Parking was a bit tight, but not unmanageable. Thank you for the lovely stay here.</t>
   </si>
   <si>
+    <t>Marisol O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r529898359-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -555,6 +609,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>shariw48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r526589005-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -570,6 +627,9 @@
     <t>The rooms were clean and fresh. Very quiet and pleasant. The staff was friendly and very helpful. I had no problems or issues. Breakfast ended a little too early...9:00...for the weekend. Great place to stop between Fort Worth and Austin.</t>
   </si>
   <si>
+    <t>Irma L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r525879110-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -594,6 +654,9 @@
     <t>Extremely happy with the staff crew. Overall pleased. Would recommend and use them again. Our total stay was eleven days breakfast and was good, housekeeping was good very curtious. I recommend againMore</t>
   </si>
   <si>
+    <t>RyanKaren84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r520908542-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -606,6 +669,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Michael E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r516734143-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -624,6 +690,9 @@
     <t>Overall this place was OK for price. The room was clean. The beds are not comfortable and the pillows are awful. I would recommend you bring your pillow. The price was reasonable but I would not stay here again if I was to visit the area again.I was told that I couldn't leave my dog unattended in the room except for breakfast even though they would be kept in a kennel. They also don't have any locations for waste bags and trash can for your dogs as I have seen at other La Quintas. When I was in the middle of bringing my stuff down to my van the cleaning lady barged into the room to start cleaning even though she was told we haven't checked out. When I came back up to double check to make sure everything was brought down my door was propped open.More</t>
   </si>
   <si>
+    <t>mikecF3602QY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r516218890-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -639,6 +708,9 @@
     <t>To all looking for a very nice place to rest while away from home on a simple get away. This hotel is clean, quick check in. Comfortable beds. Clean rest rooms. Machines that work in the gym. Decent breakfast. I will come back again and again!</t>
   </si>
   <si>
+    <t>lisamarie20172017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r516105440-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -663,6 +735,9 @@
     <t>It wasn't horrible but it wasn't what I'm use to from La Quinta! After we microwaved our popcorn a roach came out to see what we were eating! Eewww! I understand things happen but we've never had roaches visit us at any other La Quinta. Elevator button pushes into the wall when you push it. Needs to be fixed! Hallways and elevators were extremely hot, no a/c flowing through, at all! Our room was cold but that was probably the only good thing about this stay!  Very disappointed! More</t>
   </si>
   <si>
+    <t>robync903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r512686714-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -675,6 +750,9 @@
     <t xml:space="preserve">For our purpose it was a great location. It was clean and quiet. The beds were quite comfortable. We didn't eat breakfast so can't comment. The staff was pleasant. I have no complaint. I liked how the curtain was short above the air conditioner. </t>
   </si>
   <si>
+    <t>740NancyB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r512450527-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -691,6 +769,9 @@
   </si>
   <si>
     <t>My sisters and I stayed 2 nights. The hotel was clean and the room was oversized. The lobby and hall to elevator were so clean the floor shined! Beautiful! The floor space in the bathroom was over 5X5 feet! Large bathroom! The room was extended by 5 feet width also. It was roomy!  We were on the 3 rd floor across from the elevator so we were concerned about noise. Never heard anyone. Breakfast was typical hotel food but was plentiful and hot! Service was great also from check in to check out. Hotel had an outside pool and hot tub we didn't get to use because of a rain storm. Also a nice exercise room. More</t>
+  </si>
+  <si>
+    <t>Psalm19</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r509698316-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -718,6 +799,9 @@
 Basically, you get a lot of bang for you buck here.  John and Lenore both went out of their way to make us comfortable.  Oh, they also allow pets at no extra charge.  You just have to...We had some housing issues and ended up staying at the La Quinta in Alvarado nine different nights during the month of July.  Over those nine nights, we stayed in four different rooms encompassing all three floors.  Although we live in Burleson, we made the drive to Alvarado because the La Quinta there is typically $25.00 per night cheaper than the La Quinta in Burleson.  It’s a better value than pretty much any hotel in Burleson for that matter.The rooms were clean.  The beds were comfortable.  All of the common areas were kept very clean.  The breakfast was good and included mini cheese and egg omelets, waffles, biscuits and gravy, sausages, juice and all the other fare you’d typically find at a higher priced hotel.  LQ has a nice outdoor pool.  It was closed one day due to some sort of maintenance issue which is, of course, understandable.  They really do need to address the problem with non-guests using the pool as we did see a lot of that while we were there.  The couple of issues I found were maintenance-related and were very minor in nature…  a missing screw in the bathroom door strikeplate that kept it from latching properly, etc.Basically, you get a lot of bang for you buck here.  John and Lenore both went out of their way to make us comfortable.  Oh, they also allow pets at no extra charge.  You just have to make sure you check your dog or cat in at the front desk.More</t>
   </si>
   <si>
+    <t>Jamie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r505605506-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -742,6 +826,9 @@
     <t>Was a decent hotel, very clean, and the staff was friendly and helpful.  Had a few issues though. #1) bed sunk in towards the middle.  #2) They served the SAME exact things for breakfast 3 days in a row.  #3) while we were swimming, we witnessed a good amount of people pull their car into the parking lot, get out with towels and enter the pool to swim.  After about an hour or so, they would get back into their car and leave, so we could tell they weren't hotel quest.  We said something to the front desk and they said they would check into it, and nothing changed.More</t>
   </si>
   <si>
+    <t>plaidpaige</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r503841014-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -766,6 +853,9 @@
     <t>This motel was very clean and appeared well maintained. Very close to the highway which was convienient. The entrance was a little hard to find . They had ample parking for your truck with trailer. There was a lot of fast food near by but not many restaurants. Breakfast was okay. They let animals stay which is great! More</t>
   </si>
   <si>
+    <t>winghungc2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r503760538-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -787,6 +877,9 @@
     <t>La Quinta Alvarao in Texas is one of the best among other La Quinta I'd stayed....... La Quinta has many location throughout the entire nation. However, the hotel quality and services are vary. Some are good , some are pretty bad. Seems to me La Quinta had acquired many old apartment style motels or apartment and convert it into La Quinta, they look and feel total different in different location, so as the quality and services. For example, I stayed in La Quinta in Alvarado, Tx two times in a year, this one provides clean and decent services. I like it, most likely I will come back again. On the other hand, in June 2017, my entire family stayed in La Quinta, 200 Jibboom St Sacramento, CA 95811. This one was being modified from an old motel or apartment, it looks cheap and not clean, the TV in my room not working, informed front desk, a guy comes in took a look say something I don't understand and left, then he never comes back. Breakfast room is too small for a big inn this sizes, always out of seat and lack of food and drinks. My summary is: A good decent Consistent services is what I expect from La Quinta. Thanks for your attention.More</t>
   </si>
   <si>
+    <t>N6671PKrickp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r497591583-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -814,6 +907,9 @@
     <t>i spent a week here on a business trip.  Service was great, breakfast was really good, outdoor pool was private and well maintained.  The staff were very polite and accomodating.  This will be my choice hotel on my next trip here.More</t>
   </si>
   <si>
+    <t>S6766IBcharlesw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r491878792-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -838,6 +934,9 @@
     <t>In the Top 5 service-wise of all the hotels in which I have stayed in my years of business travel.  Extremely friendly and helpful staff.  You won't go wrong staying here.  They tried to think of things to make us comfortable before we could even ask.  I'd probably stop here when traveling through here just to visit with the staff since they became to feel like family.More</t>
   </si>
   <si>
+    <t>janmm2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r483333370-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -856,6 +955,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Terry P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r483577262-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -871,6 +973,9 @@
     <t>I really enjoyed our stay and would stay again when traveling through Alvarado.  The room was very comfortable and the beds were great with a very relaxing stay and enjoyable breakfast.  The grounds were very attractive and the location was perfect for our visit.  Restaurants were nearby and front desk was very helpful in getting us what we needed.</t>
   </si>
   <si>
+    <t>91lawrencem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r483091377-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -883,6 +988,9 @@
     <t>Very good enjoyable time for our grand daughter's dance recital.  Found shortcut to Mansfield and the savings for the little bit of driving was well worth the drive.  Besides, the Alvarado location is much closer top more economical gas prices and very close to the Whataburger (a big plus).  Will definitely stay at this location again!</t>
   </si>
   <si>
+    <t>Christine G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r385021682-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -910,6 +1018,9 @@
     <t>We stopped here'it was approx half way to our beach house for vacation. We opted for a king room and so glad we did what a huge room, apart from the bed there was a little seating area with two arm chairs and a sleeper sofa along with a work desk if you needed it,  the barroom was good too. Staff very friendly and we had the pool to ourselves at 9 pm and the staff member put on the outside light for us to allow us to stay if we wanted until 10 pm when the pool closed,it was very pleasant after a long day of driving to be able to kick back and splash for a while. Breakfast next morning was ready from 6 am so you could get an early start if you were so inclined  plenty of choice. More</t>
   </si>
   <si>
+    <t>Charles R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r378844627-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1042,9 @@
     <t>Our son was getting married and we needed a "base hotel" for the Wedding Weekend and Rehearsal Dinner. We had stayed at other LaQuintas and been pleased. So we booked this hotel for the event, but decided to visit the hotel to be sure. Boy am I glad we did. The hotel was old and in need of some upkeep. The morning staff was great, but night staff seemed to not be particularly efficient. Mentioned to someone we were under impressed, and they suggested another hotel in town. We checked it out and really liked what we saw. The "suggested hotel" was in better condition, more spacious, and less expensive. I approached the Manager at the LaQuinta with my concerns, and was told the hotel and the price is what it is and there is nothing he can/will do. We canceled our LaQuinta reservations and made new reservations at the other hotel. Now that the Wedding is over, very glad we did. I will stay at other LaQuintas, but not this one. More</t>
   </si>
   <si>
+    <t>A_Govt_Worker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r374726091-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1063,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Karen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r366246011-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1084,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>rep44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r361946282-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1102,9 @@
     <t>One of the best value hotels I have stayed n recently. Staff, breakfast food, and hotel facility were excellent. The price of the room was very moderate. ADA rooms had beds  that were too tall for wheelchair to bed access.</t>
   </si>
   <si>
+    <t>Mark J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r320629746-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1000,6 +1123,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Sunnylady2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r319894548-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1141,9 @@
     <t>We only stayed one night but left feeling rested.  The hotel was very convenient for us.   We stayed at several LQs during our trip to Texas.  This LQ was one of the nicest.  It was clean, offered a good LQ breakfast and the coffee was great!  The laundry room was needing some TLC but overall we would go back if we were in Alvarado again.</t>
   </si>
   <si>
+    <t>MHinkle60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r319220785-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1159,9 @@
     <t>This is a great location in the DFW area albeit closer to I-35W than it is to I-35E. It is MUCH quieter and less busy than fighting the masses in the middle of Dallas! A+ The owner/manager was VERY accommodating and seems to genuinely care for us as guests which was quite refreshing and unexpected. Texas-shaped Waffles! Enough said...</t>
   </si>
   <si>
+    <t>948jayr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r318063332-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1180,9 @@
     <t>I stay in this area for at least a weekend every month and this was the second time at La Quinta Alvarado.  The first was okay although we asked to move because you can hear every footstep from the rooms above you. We had wifi issues in the first room but the last room was okay.This time I asked for a third floor room but did not have wifi!  After complaining I was told they were having some issues despite it being available on the opposite end of the building.  I asked to be moved the next day and was willing to put up with a second floor room as long as I had wifi to do my work.Was moved day two and yet again no wifi.  Seems it was an issue with rooms on the south end.  While the night manger tried to help, it's obvious that this is a continuous issue.  We also had ants and a cricket in the room.  The bathroom had broken tiles, mold around the poorly caulked tub and the noise from neighbors is unavoidable.I think when one thing goes wrong you tend to be critical of the whole and issues that otherwise would be overlooked become relevant.  This place is a definite 2star and not indicative of the La Quinta brand.  Stay at the Best Western Suites in Burleson for about $5pd more and avoid all these issues. More</t>
   </si>
   <si>
+    <t>CrazyFamil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r316756501-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1063,6 +1198,9 @@
     <t>Way too much air freshener smell - like a clean toilet...opening the window didn't even work.  Wi-Fi service didn't work in parts of the hotel.  This hotel was a good value for the money.  Had many channel choices - DISH network.</t>
   </si>
   <si>
+    <t>TeeCeeCee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r314892450-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1222,9 @@
     <t>The front desk staff was wonderful. They were friendly and very helpful, but my pleasant experience ended there. Imagine not having your room cleaned for your entire stay. Imagine having to ask for clean towels and toilet paper because the cleaning staff did not clean the floor you were on so those things, of course were not given to you. Further imagine walking down the hall to the elevator and passing a pile of dirty sheets and bags of trash placed outside of an occupant's door because, again the floor where you are staying didn't receive visits from the cleaning staff. Fortunate for them I didn't have to pay for my 3 day stay. I was there on business and the room was paid for. But should I return to this area I will NOT stay there again........travelers beware!More</t>
   </si>
   <si>
+    <t>AnnG879</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r305527596-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1243,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>blueskytravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r302457336-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1264,9 @@
     <t>Another La Quinta that does not recognize the rewards system unless you specifically ask/bring it to their attention, which really defeats the point in the first place. The room was ok. Bathroom had been updated, but reeked of cigarette smoke-in my non-smoking room, bed clean until you looked under the top sheet at the comforter and then it wasn't. The carpet is old and awful. If you take your shoes off your feet will be black in minutes. The fridge did not work properly-on even the warmest setting it froze all contents- so useless for keeping milk and fresh fruit. The hotel desperately needs more linens. I was on the second floor of three and every day housekeeping was completely out of clean linens by the time they got to my room. I would have to ask later at front desk and then they would make a notation on my account that I requested towels, Ridiculous. There is no was to plug the drain in bathroom sink, which I suppose is only an issue if you are traveling with an infant and need to wash bottles, as I did. They do offer many more breakfast options compared to similar hotels. Business center was also useless as the printer was out of ink during my entire stay. The wifi and guest laundry both worked well.More</t>
   </si>
   <si>
+    <t>Stephanie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r300980683-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1135,6 +1282,9 @@
     <t>Very clean, didn't have any bad smells, friendly staff....we would stay there again. Breakfast food was not so pleasant but there are plenty of choices around this location. Right off of hwy 35 but visibility of the sign to the  entrance is somewhat hidden. Outdoor pool and spa were also very clean and enjoyable.</t>
   </si>
   <si>
+    <t>youcancallmek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r293569006-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1303,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Harr16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r288494109-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1168,6 +1321,9 @@
     <t>I always stay at la quinta and it has never disappointed me. Their rooms are nice and comfortable. The breakfast was great, would have loved some danishes. The staff is very friendly and always on top of the things.</t>
   </si>
   <si>
+    <t>Matt P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r283055998-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1186,6 +1342,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>lessmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r281623312-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1360,9 @@
     <t xml:space="preserve">This was OK. Not a bad stay. Overall fairly clean. However it seemed not well kept as many things we noticed were broken.   Phone didn't work. Hair dryer didn't work. Chair was broken. No sheets for pull out bed.  Hairs in bathroom.  Pool was ok. The kids enjoyed it. Hot tub didn't work.  Was heated but the jets didn't work.  Ok stay for passing through. </t>
   </si>
   <si>
+    <t>alicia p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r279745263-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1378,9 @@
     <t>Great hotel nice n clean, cold rooms after a hot day very refreshing the a/c was on ready n waiting for us. Hot breakfast texas shaped waffle, eggs, buscuit n gravy, oj, milk, cereal, apple juice, water. Nice people make you feel right at home</t>
   </si>
   <si>
+    <t>Brandiwright10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r278391388-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1396,9 @@
     <t>Mold in the room on the ceiling, no pillows for the pull out bed and we had to ask for bedding. The lady at the front desk was extremely rude. We are extremely dissapoibted and have sore necks from sleeping on rolled up towels. Also the cleaning crew never came to our room. Absolutely awful!</t>
   </si>
   <si>
+    <t>jonmike44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r256813433-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1249,6 +1417,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Robert P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r256862691-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1261,6 +1432,9 @@
     <t>Absolutely one of the cleanest and most friendly La Quinta  that I have stayed at.  We traveled over 4000 miles this trip and stayed at different hotels.  This was the friendliest and nicest. Will definitely stay here again if in this area.</t>
   </si>
   <si>
+    <t>yvettet277</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r256644902-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1276,6 +1450,9 @@
     <t>Great hotel and staff.  hated the way they stored the coffee items in the bathroom (in the area where the water goes in the pot itself.) The packets were dirty and then they are stored in there and it is just YUCK!!  Bathroom wasn't as clean as it could be but it was late so i wiped it down and we stayed. Otherwise it was a nice basic hotel.</t>
   </si>
   <si>
+    <t>William M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r256333666-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1288,6 +1465,9 @@
     <t>Excellent friendly staff. Rooms were very clean and had all the typical amenities available. Hot, and on time breakfast available in the morning. No noise issues, lots of channels available on the television. Always satisfied with my stay at La Quinta.</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r252849258-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1486,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Nolan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r251737481-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1324,6 +1507,9 @@
     <t>My wife and I stayed 3 nights at this hotel. The first night we were suprised to learn that the hotel was not totally a non-smoking hotel. Also we were suprised to learn that the hotel has only one ice machine for a 3 story hotel and the machine was totally out of ice. The next day the ice machine had plenty of ice. The rooms were nicely furnished and seemingly clean. The first day we arrived the front desk employee seemed to be a little clueless at times. The hotel has a full breakfast with either sausage, eggs and biscuits and gravy and waffles and we really appreciated that it was not just a plain continental breakfast.  Overall this was a decent night's stay at an affordable price. Hotel is close to a Dairy Queen and a Sonic and a few other restraunts across the highway.More</t>
   </si>
   <si>
+    <t>Joyce L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r248394895-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1528,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Hjhomes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r244226539-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1357,6 +1546,9 @@
     <t>I have stayed here previously.  Location is right off the highway and there is a sonic and Dairy Queen within walking distance. Room was clean and tidy.  Lobby was kind of scarce of furniture and there were police parked in hotel circle when we arrived.</t>
   </si>
   <si>
+    <t>Gotlabz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r242853113-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1372,6 +1564,9 @@
     <t>Our room had black mold it had not been cleaned in the bathroom area and the smoke detector was missing from the wall and live wires were exposed. Exhaust fan in bathroom did not work and there was a big gaping hole that allowed smoking from the third floor to pour in our room.Staff definitely was not trained on fire code or mold remediationHorrible accommodations not to mention health hazard. Do yourself a favor and stay away.Left voicemail messages for both front desk manager and general manager for refund and never received a call back. Wow... Shocking.</t>
   </si>
   <si>
+    <t>Terry F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r243028956-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1390,6 +1585,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Josie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r239755349-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1606,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Lennard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r238802610-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1423,6 +1624,9 @@
     <t>We stated at this hotel on Halloween. We stayed in room 100, and I must say the room is in need of a makeover.The carpet was worn and stained and the furniture was worn and in need of repair. There was a red stain(like nail polish) on the bedding. The room was clean and the staff was friendly, but this room was in the worst condition of any of the hotels we stayed at on our 7 day trip through Texas.(all but one were Laquinta's)I would not stay here again.</t>
   </si>
   <si>
+    <t>Bilyahn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r238567785-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1435,6 +1639,9 @@
     <t>Excellent property very reasonable pricing. Overall had a very nice comfortable stay.   Issue with wi-fi for one of my devices but other devices worked just fine. Have had issue with this at other La Quinta properties so not sure what to think. Sometimes it works well sometimes not so well</t>
   </si>
   <si>
+    <t>Emily P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r237216313-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1450,6 +1657,9 @@
     <t>Lots of surrounding areas to visit. Near Fort Worth,  Texas and also near Dallas, Texas. Things to see in Fort Worth: The Fort Worth Zoo and the stock yards. In Dallas, you can visit the Dallas Zoo and the new Bush Educational Library. We went to Alvarado in October and the weather was very nice. Alvarado is also near Cleburne, Texas and they have good shopping there.</t>
   </si>
   <si>
+    <t>Joann W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r234660659-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1465,6 +1675,9 @@
     <t>Breakfast doesn't match advertising; dryer wasn't working and was not repaired during our 6-day stay and had to find laundramat; black mold spots across bottom of shower curtain; and front desk was not welcoming--</t>
   </si>
   <si>
+    <t>Ralph D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r228404946-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1481,6 +1694,9 @@
   </si>
   <si>
     <t>September 2014</t>
+  </si>
+  <si>
+    <t>Eder55</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r224837090-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1514,6 +1730,9 @@
 Also a good option if you want to visit the big cities...Very friendly staff I went on winter and there was a snow, so my car shield was all covered with snow, I had nothing to deal with so the staff borrowed me a scrapper to fight against the ice. Sadly I broke it but in the corner there is an Autozone so i bought a heavy duty scrapper and I did the job. I gave my heavy duty scraper in return for the one I broke, and the staff said no problem, so I thank them. I was going to airport so I couldn't get the scrapper with me, at the end was a win-win trade.Hotel is nice and clean not sophisticated but they have what you need to rest after a business day or if you are driving in the highway and you decide to stop, sleep and continue the next day.Best of this Hotel is TV, lots and lots of HD channels, I've been in other La Quinta and is not like this TV this one is great. Is not like most poor cable signals that some hotels have.Pool looks nice i couldn't get into cuz the winter, there is a well looking jacuzzi also I couldn't try it.The hotel has a big open space at the back were you can exercise or walk or if you have pets take them out.Also a good option if you want to visit the big cities and don't want to pay much. Arlington, Dallas and FW are like 30 or 40 min awayMore</t>
   </si>
   <si>
+    <t>Robert L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r223761064-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1532,6 +1751,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Cary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r220251106-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1547,6 +1769,9 @@
     <t>My first thought when I entered was I had walked into a Indian restaurant, the smell of curry was pretty heavy. The staff is friendly, the room is clean and the A/C was cold. Like most, they lack maintenance but nothing horrible. Overall, a good place to stay when in the area.</t>
   </si>
   <si>
+    <t>Patti G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r209979606-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1583,6 +1808,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Maggier18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r203974616-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1598,6 +1826,9 @@
     <t>The rooms and halls are always so clean. The floors in the halls shine! This pet friendly hotel is a pleasure to visit because it is quiet at night and has plenty of space outside to walk my mini dachshund. Will stay here again!</t>
   </si>
   <si>
+    <t>YLICOYOTE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r203163252-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1616,6 +1847,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Christine R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r201991401-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1649,6 +1883,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Margaret T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r191113434-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1664,6 +1901,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>SirBentley400</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r186595224-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1682,6 +1922,9 @@
     <t>We travel and like La Quinta. Wife is in a power chair and La Quinta has great handi-cap rooms with a roll-in shower. We had stayed at Ardmore La Quinta and was just returning to Kerrville texas. It was 1235 AM and we were very tired and our GPS directed us to the nearest La Quinta. Outward appearance was nice but very few cars in the parking lot. On check in I requested a handi-cap room and desk clerk said he had one han di-cap room left and it had a JAQUZZI HOT TUB. HANDI-CAP ROOM WITH A JAQUZZI HOT TUB..? Room has BLONDE 1970s furniture, with a 32" flat screen TV with satelite box under the TV with two remote control units. One turned TV on and off and adjusted volume, while other controlled the channels. The bed was not the normal plush beds like other La Quintas but very very firm . The room had one picture on the wall, strange for a large room. Same way in the dining area of the hotel, there were no pictures or room decorations. Looked like an old MOTEL 6.. The smoke detector was missing the cover for the battery and I could not see any battery. The carpet was very very worn and was frayed at the door of the bathroom.  Wife is in a power chair and the bathroom door opens on the right side of the door frame...We travel and like La Quinta. Wife is in a power chair and La Quinta has great handi-cap rooms with a roll-in shower. We had stayed at Ardmore La Quinta and was just returning to Kerrville texas. It was 1235 AM and we were very tired and our GPS directed us to the nearest La Quinta. Outward appearance was nice but very few cars in the parking lot. On check in I requested a handi-cap room and desk clerk said he had one han di-cap room left and it had a JAQUZZI HOT TUB. HANDI-CAP ROOM WITH A JAQUZZI HOT TUB..? Room has BLONDE 1970s furniture, with a 32" flat screen TV with satelite box under the TV with two remote control units. One turned TV on and off and adjusted volume, while other controlled the channels. The bed was not the normal plush beds like other La Quintas but very very firm . The room had one picture on the wall, strange for a large room. Same way in the dining area of the hotel, there were no pictures or room decorations. Looked like an old MOTEL 6.. The smoke detector was missing the cover for the battery and I could not see any battery. The carpet was very very worn and was frayed at the door of the bathroom.  Wife is in a power chair and the bathroom door opens on the right side of the door frame so she had to close the door and sqeeze up by the entry door and then open the bathroom door and then the same to get back into the room. The room seemed clean but the JAQUZZI surround tile had been pieced together and had large gaps. The soda vending machine was broken, the guest laundry room had a large sign indicating out of order and the pool was a very dull green with trash and dirt with a empty soda bottle floating on top. Same with the hot tub beside the pool. The area beside the suit case rolling racks storage had three large wall tiles that had fallen off and were laying in the floor. This is NOT a typical La Quinta.. The parking lot was dirty with mud and loose trash in grass area. Seems that this OWNER is not updating this hotel and it is NOT up to La Quinta standards..More</t>
   </si>
   <si>
+    <t>James V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r182308541-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1700,6 +1943,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Joe G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r181888050-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1715,6 +1961,9 @@
     <t>I have stayed here every 3 months for the last 2 years.  Check-in is easy, friendly staff, and if there are any glitches they are taken care of quickly.  The staff are so helpful and go the extra mile to make my stay a great one.  I have appreciated their friendly can-do attitude; you can see it from the people who clean the room to the managerial staff.  I am coming back!:)</t>
   </si>
   <si>
+    <t>carlos l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r180348080-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1733,6 +1982,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Greg C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r175266952-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1754,6 +2006,9 @@
     <t>We were at this hotel because our daughter was playing in a softball tournment in Mansfield.  I have had some bad experiences with the La Quinta chain, so I was a little leery.  Upon arrival, we found a clean and modern hotel.  Check-in was a breeze, and we were directed to everything that we would need.  At the end of the second day, I was thinking that there would be nothing to comment about in this review.  As we were preparing to leave, we found two long lines, one at the elevator and one at the front desk.  I also overheard one of the housekeeping staff saying that they were going to be short housekeeping for the day.  As it turned out, the elevator was broken.  We had to haul everything downstairs to the vehicle one at a time.  The line for checkout was growing.  I was told that the bills for several in our group were wrong.  It appeared that the clerk was completely overwhelmed.  I had to send my daughter to the game with another parent so that she could make it on time.  So, why did I still give it a four star rating?  It appeared that this was an out-of-the-ordinary day.  The staff maintained a great attitude and worked diligently to get everything done.  Two of the housekeeping staff were having to carry their laundry carts up the stairs.  I heard them laughing and carrying on...We were at this hotel because our daughter was playing in a softball tournment in Mansfield.  I have had some bad experiences with the La Quinta chain, so I was a little leery.  Upon arrival, we found a clean and modern hotel.  Check-in was a breeze, and we were directed to everything that we would need.  At the end of the second day, I was thinking that there would be nothing to comment about in this review.  As we were preparing to leave, we found two long lines, one at the elevator and one at the front desk.  I also overheard one of the housekeeping staff saying that they were going to be short housekeeping for the day.  As it turned out, the elevator was broken.  We had to haul everything downstairs to the vehicle one at a time.  The line for checkout was growing.  I was told that the bills for several in our group were wrong.  It appeared that the clerk was completely overwhelmed.  I had to send my daughter to the game with another parent so that she could make it on time.  So, why did I still give it a four star rating?  It appeared that this was an out-of-the-ordinary day.  The staff maintained a great attitude and worked diligently to get everything done.  Two of the housekeeping staff were having to carry their laundry carts up the stairs.  I heard them laughing and carrying on about it.  I even joked with them a little.  A great attitude in a time of crisis goes a long way with me.  For that they are to be commended.  I would definitely give them another shot.More</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r171261651-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1766,6 +2021,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>curlydolls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r168934607-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1784,6 +2042,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>DannyGreene</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r166402798-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1799,6 +2060,9 @@
     <t>Manager &amp; Staff were friendly but it has flaws. Tables were not promptly cleaned during breakfast along with always having to inform them they were out of coffee or other breakfast items. Ice machine was always out on 1&amp; 2 floors.Police showed up both times I stayed there for problems related to some staff members.Lobby, hallways and elevator were always hot, no AC.WIFI was always going out.Rooms seemed fine</t>
   </si>
   <si>
+    <t>sandratJ224JV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r166036765-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1817,6 +2081,9 @@
     <t>My husband and I were traveling through Texas on our way to Oklahoma on a disaster recovery trip. We had our new travel trailer in tow, which I have never towed before. Dave, the maintenance man at this LaQuinta, came over when he saw me struggling to find a parking area that I could get into. He ended up trying to back into the area for me and then gave us a place on an adjacent lot to park in, which he drove our truck and trailer to and parked there for us. He then made himself available in case I needed any further assistance. I am grateful for his help and for the service that went above and beyond.More</t>
   </si>
   <si>
+    <t>sandy s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r163856448-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1844,6 +2111,9 @@
     <t xml:space="preserve">Don't let the reasonable price fool you in thinking this is a cheap hotel.  It's not, it's clean, the staff is pleasant and the breakfast plentyful.  Thanks Ernest for taking care of us. We will be back. </t>
   </si>
   <si>
+    <t>Kedekat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r163011348-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1857,6 +2127,9 @@
   </si>
   <si>
     <t>Highly recommended!  Great place to stay!  Friendly staff, especially Sam, who went out of his way to help make our 2 night stay here more enjoyable!  Hot breakfast was provided. Extra clean rooms and pool area. Easy access to interstate 10.  Short drive to Fort Worth. And of course, pet friendly!</t>
+  </si>
+  <si>
+    <t>michaelcJ5243LK</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1141311-r159352405-La_Quinta_Inn_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -2394,43 +2667,47 @@
       <c r="A2" t="n">
         <v>57603</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>162936</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2442,56 +2719,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57603</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>17365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2503,56 +2784,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57603</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>5092</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2574,56 +2859,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57603</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>162937</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2635,56 +2924,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57603</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>162938</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2708,50 +3001,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57603</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>11040</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2763,56 +3060,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57603</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>162939</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>91</v>
-      </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2834,54 +3135,58 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57603</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>162940</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2903,56 +3208,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57603</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>3855</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2974,56 +3283,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57603</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>162941</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3047,50 +3360,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57603</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>162942</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3112,56 +3429,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57603</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>162943</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -3183,56 +3504,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57603</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3246,50 +3571,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57603</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>162944</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3307,56 +3636,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57603</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>162945</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3368,54 +3701,58 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57603</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>162946</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3437,56 +3774,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57603</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>86284</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3500,50 +3841,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57603</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>162947</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3567,50 +3912,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57603</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>162948</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3634,50 +3983,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57603</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>162949</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3699,41 +4052,45 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57603</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>162950</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3741,10 +4098,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3765,51 +4122,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57603</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>8101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3833,50 +4191,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57603</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>162951</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3900,50 +4262,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57603</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>162952</v>
+      </c>
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3965,56 +4331,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57603</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>162953</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>216</v>
       </c>
-      <c r="J26" t="s">
-        <v>217</v>
-      </c>
-      <c r="K26" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" t="s">
-        <v>218</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>195</v>
-      </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4038,50 +4408,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57603</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>162954</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4095,50 +4469,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57603</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>162955</v>
+      </c>
+      <c r="C28" t="s">
+        <v>251</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4158,50 +4536,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57603</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>18563</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4219,56 +4601,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="X29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="Y29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57603</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>162956</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4280,56 +4666,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="X30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57603</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>162957</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4351,56 +4741,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="X31" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57603</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>162958</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4422,56 +4816,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="X32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="Y32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57603</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>162959</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4493,56 +4891,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="X33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57603</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>162960</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4566,50 +4968,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57603</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>35136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>311</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="J35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4633,50 +5039,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57603</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>162961</v>
+      </c>
+      <c r="C36" t="s">
+        <v>317</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4700,50 +5110,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57603</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>3955</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4755,56 +5169,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57603</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>8758</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4818,50 +5236,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57603</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>162962</v>
+      </c>
+      <c r="C39" t="s">
+        <v>340</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="J39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4885,50 +5307,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57603</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C40" t="s">
+        <v>347</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="J40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4952,50 +5378,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57603</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>162963</v>
+      </c>
+      <c r="C41" t="s">
+        <v>354</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="J41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5019,50 +5449,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57603</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>4065</v>
+      </c>
+      <c r="C42" t="s">
+        <v>360</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="O42" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5082,50 +5516,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57603</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>162964</v>
+      </c>
+      <c r="C43" t="s">
+        <v>367</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5145,50 +5583,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57603</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>162965</v>
+      </c>
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5212,50 +5654,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57603</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>162966</v>
+      </c>
+      <c r="C45" t="s">
+        <v>379</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="J45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="K45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5269,50 +5715,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57603</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>162967</v>
+      </c>
+      <c r="C46" t="s">
+        <v>386</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="J46" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="K46" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5336,50 +5786,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57603</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>162968</v>
+      </c>
+      <c r="C47" t="s">
+        <v>392</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="J47" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="K47" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="L47" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -5397,50 +5851,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57603</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>162969</v>
+      </c>
+      <c r="C48" t="s">
+        <v>400</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="K48" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5458,50 +5916,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57603</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>162970</v>
+      </c>
+      <c r="C49" t="s">
+        <v>407</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="J49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5521,50 +5983,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57603</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>13412</v>
+      </c>
+      <c r="C50" t="s">
+        <v>414</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="J50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5578,50 +6044,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57603</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>162971</v>
+      </c>
+      <c r="C51" t="s">
+        <v>420</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J51" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="K51" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="O51" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5645,50 +6115,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57603</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>162972</v>
+      </c>
+      <c r="C52" t="s">
+        <v>427</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="J52" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5706,50 +6180,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57603</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>32377</v>
+      </c>
+      <c r="C53" t="s">
+        <v>433</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="J53" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="K53" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="L53" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5773,41 +6251,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57603</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>162973</v>
+      </c>
+      <c r="C54" t="s">
+        <v>440</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="J54" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="K54" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="L54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -5826,50 +6308,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57603</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>162974</v>
+      </c>
+      <c r="C55" t="s">
+        <v>446</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="J55" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="K55" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="O55" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5883,50 +6369,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57603</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>162975</v>
+      </c>
+      <c r="C56" t="s">
+        <v>452</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="J56" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="K56" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="L56" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="O56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5940,50 +6430,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57603</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>162976</v>
+      </c>
+      <c r="C57" t="s">
+        <v>458</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="J57" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="K57" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="L57" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="O57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6003,50 +6497,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57603</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>7260</v>
+      </c>
+      <c r="C58" t="s">
+        <v>465</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="J58" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="K58" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="L58" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6070,50 +6568,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57603</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>162977</v>
+      </c>
+      <c r="C59" t="s">
+        <v>470</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="J59" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="K59" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="L59" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6137,50 +6639,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57603</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>13586</v>
+      </c>
+      <c r="C60" t="s">
+        <v>476</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="J60" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="K60" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="L60" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6204,50 +6710,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57603</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C61" t="s">
+        <v>481</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="J61" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="K61" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6271,50 +6781,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57603</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>162978</v>
+      </c>
+      <c r="C62" t="s">
+        <v>488</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="J62" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6338,50 +6852,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57603</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>7360</v>
+      </c>
+      <c r="C63" t="s">
+        <v>495</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="J63" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="K63" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="L63" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6405,41 +6923,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57603</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>162979</v>
+      </c>
+      <c r="C64" t="s">
+        <v>502</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="J64" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="K64" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
@@ -6458,41 +6980,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57603</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>162980</v>
+      </c>
+      <c r="C65" t="s">
+        <v>508</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="J65" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="K65" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="L65" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
@@ -6521,50 +7047,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57603</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>45620</v>
+      </c>
+      <c r="C66" t="s">
+        <v>514</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="J66" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="K66" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="L66" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="O66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6588,50 +7118,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57603</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>162981</v>
+      </c>
+      <c r="C67" t="s">
+        <v>521</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="J67" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6655,50 +7189,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57603</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>162982</v>
+      </c>
+      <c r="C68" t="s">
+        <v>528</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="J68" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="K68" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="L68" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="O68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
         <v>2</v>
@@ -6718,50 +7256,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57603</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>162983</v>
+      </c>
+      <c r="C69" t="s">
+        <v>534</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
       <c r="J69" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="K69" t="s">
         <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="O69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6785,50 +7327,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57603</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>4496</v>
+      </c>
+      <c r="C70" t="s">
+        <v>539</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="J70" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="K70" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="L70" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="O70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6852,50 +7398,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57603</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>3487</v>
+      </c>
+      <c r="C71" t="s">
+        <v>545</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="J71" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="K71" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="L71" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="O71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6919,50 +7469,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57603</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>162984</v>
+      </c>
+      <c r="C72" t="s">
+        <v>551</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="J72" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="K72" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="L72" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>486</v>
+        <v>557</v>
       </c>
       <c r="O72" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6986,50 +7540,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57603</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>162985</v>
+      </c>
+      <c r="C73" t="s">
+        <v>558</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="J73" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="K73" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="L73" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7047,50 +7605,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>493</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57603</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C74" t="s">
+        <v>566</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="J74" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
       <c r="K74" t="s">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="L74" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="O74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7114,41 +7676,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57603</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>34074</v>
+      </c>
+      <c r="C75" t="s">
+        <v>573</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="J75" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="K75" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="L75" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
@@ -7167,50 +7733,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57603</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>24571</v>
+      </c>
+      <c r="C76" t="s">
+        <v>579</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="J76" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="K76" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="L76" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>510</v>
+        <v>585</v>
       </c>
       <c r="O76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7234,50 +7804,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>57603</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>512</v>
+        <v>587</v>
       </c>
       <c r="J77" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="K77" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="L77" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
       <c r="O77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7301,50 +7875,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>57603</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>162986</v>
+      </c>
+      <c r="C78" t="s">
+        <v>592</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>518</v>
+        <v>594</v>
       </c>
       <c r="J78" t="s">
-        <v>519</v>
+        <v>595</v>
       </c>
       <c r="K78" t="s">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="L78" t="s">
-        <v>521</v>
+        <v>597</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
       <c r="O78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7368,50 +7946,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>521</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>57603</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>162987</v>
+      </c>
+      <c r="C79" t="s">
+        <v>598</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="J79" t="s">
-        <v>524</v>
+        <v>601</v>
       </c>
       <c r="K79" t="s">
-        <v>525</v>
+        <v>602</v>
       </c>
       <c r="L79" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="O79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -7435,50 +8017,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>57603</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>36846</v>
+      </c>
+      <c r="C80" t="s">
+        <v>605</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>529</v>
+        <v>607</v>
       </c>
       <c r="J80" t="s">
-        <v>530</v>
+        <v>608</v>
       </c>
       <c r="K80" t="s">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="L80" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="O80" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7502,50 +8088,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>57603</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>4496</v>
+      </c>
+      <c r="C81" t="s">
+        <v>539</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
       <c r="J81" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="K81" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="L81" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="O81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7569,50 +8159,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>57603</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>35613</v>
+      </c>
+      <c r="C82" t="s">
+        <v>617</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>539</v>
+        <v>618</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>540</v>
+        <v>619</v>
       </c>
       <c r="J82" t="s">
-        <v>541</v>
+        <v>620</v>
       </c>
       <c r="K82" t="s">
         <v>12</v>
       </c>
       <c r="L82" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7636,50 +8230,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>57603</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>162988</v>
+      </c>
+      <c r="C83" t="s">
+        <v>623</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>544</v>
+        <v>624</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
       <c r="J83" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
       <c r="K83" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
       <c r="L83" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="O83" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -7693,50 +8291,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>57603</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>6771</v>
+      </c>
+      <c r="C84" t="s">
+        <v>630</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
       <c r="J84" t="s">
-        <v>552</v>
+        <v>633</v>
       </c>
       <c r="K84" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
       <c r="L84" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="O84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7760,50 +8362,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>57603</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>6736</v>
+      </c>
+      <c r="C85" t="s">
+        <v>637</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>557</v>
+        <v>639</v>
       </c>
       <c r="J85" t="s">
-        <v>558</v>
+        <v>640</v>
       </c>
       <c r="K85" t="s">
-        <v>559</v>
+        <v>641</v>
       </c>
       <c r="L85" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="O85" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7827,50 +8433,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>57603</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>162989</v>
+      </c>
+      <c r="C86" t="s">
+        <v>643</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>562</v>
+        <v>645</v>
       </c>
       <c r="J86" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
       <c r="K86" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
       <c r="L86" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="O86" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7894,50 +8504,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>57603</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>11506</v>
+      </c>
+      <c r="C87" t="s">
+        <v>650</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>567</v>
+        <v>651</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>568</v>
+        <v>652</v>
       </c>
       <c r="J87" t="s">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="K87" t="s">
-        <v>570</v>
+        <v>654</v>
       </c>
       <c r="L87" t="s">
-        <v>571</v>
+        <v>655</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>572</v>
+        <v>656</v>
       </c>
       <c r="O87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -7961,35 +8575,39 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>573</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>57603</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C88" t="s">
+        <v>658</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>574</v>
+        <v>659</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>575</v>
+        <v>660</v>
       </c>
       <c r="J88" t="s">
-        <v>576</v>
+        <v>661</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -7997,10 +8615,10 @@
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="O88" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8021,51 +8639,52 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>57603</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>162990</v>
+      </c>
+      <c r="C89" t="s">
+        <v>663</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>578</v>
+        <v>664</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>579</v>
+        <v>665</v>
       </c>
       <c r="J89" t="s">
-        <v>580</v>
+        <v>666</v>
       </c>
       <c r="K89" t="s">
-        <v>581</v>
+        <v>667</v>
       </c>
       <c r="L89" t="s">
-        <v>582</v>
+        <v>668</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
       <c r="O89" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8089,41 +8708,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>582</v>
+        <v>668</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>57603</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>162991</v>
+      </c>
+      <c r="C90" t="s">
+        <v>670</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>584</v>
+        <v>671</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>585</v>
+        <v>672</v>
       </c>
       <c r="J90" t="s">
-        <v>586</v>
+        <v>673</v>
       </c>
       <c r="K90" t="s">
-        <v>587</v>
+        <v>674</v>
       </c>
       <c r="L90" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
@@ -8152,50 +8775,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>57603</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>162992</v>
+      </c>
+      <c r="C91" t="s">
+        <v>676</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>590</v>
+        <v>678</v>
       </c>
       <c r="J91" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
       <c r="K91" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="L91" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
       <c r="O91" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8219,50 +8846,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>57603</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>59003</v>
+      </c>
+      <c r="C92" t="s">
+        <v>683</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>595</v>
+        <v>684</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>596</v>
+        <v>685</v>
       </c>
       <c r="J92" t="s">
-        <v>597</v>
+        <v>686</v>
       </c>
       <c r="K92" t="s">
-        <v>598</v>
+        <v>687</v>
       </c>
       <c r="L92" t="s">
-        <v>599</v>
+        <v>688</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
       <c r="O92" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8286,50 +8917,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>599</v>
+        <v>688</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>57603</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>152</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>601</v>
+        <v>690</v>
       </c>
       <c r="J93" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="K93" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="L93" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
       <c r="O93" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8353,41 +8988,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>57603</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>162993</v>
+      </c>
+      <c r="C94" t="s">
+        <v>693</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="J94" t="s">
-        <v>606</v>
+        <v>696</v>
       </c>
       <c r="K94" t="s">
-        <v>607</v>
+        <v>697</v>
       </c>
       <c r="L94" t="s">
-        <v>608</v>
+        <v>698</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8416,50 +9055,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>608</v>
+        <v>698</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>57603</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>162994</v>
+      </c>
+      <c r="C95" t="s">
+        <v>699</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>609</v>
+        <v>700</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>610</v>
+        <v>701</v>
       </c>
       <c r="J95" t="s">
-        <v>611</v>
+        <v>702</v>
       </c>
       <c r="K95" t="s">
-        <v>612</v>
+        <v>703</v>
       </c>
       <c r="L95" t="s">
-        <v>613</v>
+        <v>704</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>614</v>
+        <v>705</v>
       </c>
       <c r="O95" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8483,50 +9126,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>613</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>57603</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>152</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>615</v>
+        <v>706</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>616</v>
+        <v>707</v>
       </c>
       <c r="J96" t="s">
-        <v>617</v>
+        <v>708</v>
       </c>
       <c r="K96" t="s">
-        <v>618</v>
+        <v>709</v>
       </c>
       <c r="L96" t="s">
-        <v>619</v>
+        <v>710</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>614</v>
+        <v>705</v>
       </c>
       <c r="O96" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8550,7 +9197,7 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>619</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
